--- a/MiseAJour_Mapping/ig/all-profiles.xlsx
+++ b/MiseAJour_Mapping/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T10:10:20+00:00</t>
+    <t>2025-01-23T17:39:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_Mapping/ig/all-profiles.xlsx
+++ b/MiseAJour_Mapping/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T17:39:28+00:00</t>
+    <t>2025-01-27T10:44:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_Mapping/ig/all-profiles.xlsx
+++ b/MiseAJour_Mapping/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T10:44:00+00:00</t>
+    <t>2025-01-30T14:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
